--- a/Python/Pattern_Recognition/MyList.xlsx
+++ b/Python/Pattern_Recognition/MyList.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D1:D10"/>
@@ -415,68 +415,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
-          <t>2021/09/13</t>
+          <t>2021/09/14</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>새로닉스</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" customFormat="1" s="2">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>페이퍼코리아</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" customFormat="1" s="2">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>한라</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" customFormat="1" s="2">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>화신정공</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" customFormat="1" s="2">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>에이비온</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" customFormat="1" s="2">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>엘앤에프</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" customFormat="1" s="2">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EG</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" customFormat="1" s="2">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>코스모신소재</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" customFormat="1" s="2"/>
+    <row r="3" customFormat="1" s="2"/>
+    <row r="4" customFormat="1" s="2"/>
+    <row r="5" customFormat="1" s="2"/>
+    <row r="6" customFormat="1" s="2"/>
+    <row r="7" customFormat="1" s="2"/>
+    <row r="8" customFormat="1" s="2"/>
+    <row r="9" customFormat="1" s="2"/>
     <row r="10" customFormat="1" s="2"/>
     <row r="11" customFormat="1" s="2"/>
     <row r="12" customFormat="1" s="2"/>
